--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\4th Semester\AI &amp; ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092A2AB-A20C-4DFE-A561-45AA6476F07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>Sr No</t>
   </si>
@@ -338,11 +337,157 @@
   <si>
     <t>NDA</t>
   </si>
+  <si>
+    <t>Pradhan Mantri Jandhan Yojna</t>
+  </si>
+  <si>
+    <t>In rural areas 44 per cent of the households and in urban areas 33 per cent of them still do not have a bank account.
+The Pradhan Mantri Jan-Dhan Yojana, a major socio-economic initiative of the National Democratic Alliance government, was announced by the Prime Minister in his Independence Day speech. It is an ambitious attempt at extending formal financial services in a country where only 58.7 per cent of an estimated 24.67 crore households avail themselves of banking services. Despite several steps taken by many governments over the years, financial inclusion has remained elusive. In rural areas 44 per cent of the households and in urban areas 33 per cent of them still do not have a bank account. The NDA government has brought a degree of urgency to the scheme of financial inclusion. A few details of the government’s action plan figured in the budget speech. A Comprehensive Financial Inclusion Plan (CFIP) envisaging coverage of excluded households has been drawn up and is expected to be rolled out under the nomenclature. In its first phase, the Jan-Dhan Yojana will endeavour to provide universal access to all the beneficiaries through sub-service areas (SSA), each of them consisting of 100-150 families in a cluster of villages. Each SSA will be serviced by a business correspondent, who is now being given a pivotal role in facilitating account opening and ensuring smooth bank operations. Unlike in previous action plans, the Jan-Dhan Yojana will have as its focus households rather than geographical areas.
+The other important innovation is in extending need-based credit facilities to the new account holders upon their fulfilling certain conditions. A smart card — the Ru Pay card — will be issued. Using this it should be possible for customers to operate their accounts without any external help. This would be one of the most visible manifestations of technology as a tool to further inclusion, others being money transfers through mobile telephones, e-KYCs and cash management by banks to extend their services over such wide areas. Insurance companies will be asked to offer micro-finance packages including insurance. Obviously there are major challenges. Even if operational obstacles can be overcome, there is the important question of keeping the first-time bank account holders engaged. Experience suggests that a high proportion of such accounts are hardly used after the initial enthusiasm wears off. The plan of inclusion, which is part of the Prime Minister’s vision of a Digital India, requires all-round support. The government wants to use these accounts for routing cash transfers in lieu of subsidies for essential commodities. Financial inclusion in that sense is therefore much more than extending banking services. Accompanied by an equally ambitious programme of spreading financial literacy, it can achieve many important socio-economic objectives.</t>
+  </si>
+  <si>
+    <t>An ambitious plan for inclusion</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>The Protests are Not Just Anti-CAA, But Pro-Constitution</t>
+  </si>
+  <si>
+    <t>The people of India have spoken up – they will not allow the constitution to be subverted.
+For weeks now, Indians have come out on the streets in unprecedented numbers. Not a single protestor is opposed to the grant of citizenship to Hindu, Sikh, Christian, Buddhist, Jain and Parsi refugees from Bangladesh, Pakistan and Afghanistan. Instead they have declared in unison that religion cannot be a criterion for the grant of citizenship. Whatever the government says, that is precisely what the Citizenship (Amendment) Act does.
+The prime minister has claimed that the National Register of Citizens – which will divide Indians into ‘citizens’ and ‘doubtful citizens’ – is not even at the discussion stage in official circles. His assurance is completely contradicted by home minister Amit Shah’s statements inside Parliament and outside that the exercise will be rolled out all over the country by 2024. Meanwhile, a renewed push is being made for the National Population Register (NPR), which has no raison d’etre except to serve as a data bank for the NRC.
+The issue, however, is not that the two top-most government figures are saying opposing things. Nor should Modi’s word on this be considered final. It is a government’s responsibility to show the country a clear, consistent and consultative legal framework for any policy on this order of significance. Instead it continuously shifts, contradicts, denies its own claims – broad and detailed – and has only confirmed popular fears of its bad faith. As a result, only the formal withdrawal of the all-India NRC as a concept can assure the country that this horrendous exercise will not be taken up in the future.
+Civil society and the public and large have understood this. That is why the protests have not slowed, and even the violence by the police in different parts of the country – mainly in BJP-ruled states – has not deterred citizens from coming out on the streets. Their principal demand is that the CAA be redrafted to offer citizenship to any bona fide refugee facing persecution in India’s neighbourhood. This simple redrafting will adequately cover refugees from the six communities the government says it is concerned about, without gratuitously listing them (and excluding others) in the text of the law. The fact that Modi and Shah are tone deaf to this elementary logic is proof that their aim is to polarise the country on religious lines and drag India further towards a ‘Hindu rashtra’.
+The illegal manner in which people have been denied the right to peacefully oppose the government’s move – the misuse of Section 144, detentions and beatings, internet shutdowns – has widened the ambit of the protests, which are no longer just about the CAA and NRC. In fact, the hundreds of thousands of citizens out on the streets, braving lathis and bullets, chanting slogans and singing songs and vociferously raising their voice against the government, are now fighting for the constitution, for India’s foundational principles, for their democratic rights.
+From Assam to Kerala, from Mumbai to Kolkata and in Delhi, Lucknow and Mangalore, Kasargode, Vijayawada and Aurangabad, Indians, young and old, cutting across religion and caste, have come out to let the government know that they will not stay silent in the face of a brazen attempt to ride roughshod over India’s democracy.
+For the past six years or so, the country has seen lynchings, rising intolerance and systematic attempts at silencing critics. Institutions of higher learning are under siege. Minority rights are under attack. The completely cynical way in which a long-standing arrangement with Kashmir has been subverted and an entire people suppressed has shocked the conscience of the world. Barring some voices of protest, however, many in India have remained quiet, mostly because they were too scared to speak out.
+The CAA-NPR-NRC threat has changed all that. While the BJP privately tells its supporters that this ‘trishul’ is aimed at Muslims alone, the fact is that millions of Indian citizens are likely to have their lives upended by the party’s insistence that they prove their citizenship. As of today, the government has still not decided what the metric will be, but given bureaucratic inefficiency, corruption and sheer cussedness, ‘mistakes’ are bound to happen on a large scale. The list of ‘doubtful citizens’ that this enumerative excess eventually produces will almost entirely comprise the poor. Minorities will be the worst affected, because of the intent behind the exercise, but other marginalised sections will not be far behind.
+The Modi government must read the public mood and step back. People do not want vague assurances any more. Nothing short of the complete scrapping of the NPR and NRC and the redrafting of the CAA to bring it in conformity with India’s constitutional principles and international law obligations will do.</t>
+  </si>
+  <si>
+    <t>Need of the hour: On CAA protests</t>
+  </si>
+  <si>
+    <t>The Centre must stop privileging religious persecution over other forms
+As protests continue to ripple in many parts of the country against the Citizenship (Amendment) Act, 2019, or the CAA, the National Population Register (NPR) and allied issues, their nature, content and direction have drawn critical attention. The introduction of a religious test for Indian citizenship through the CAA evoked widespread public indignation. Right-thinking people from all walks of life mobilised in a manner befitting a vibrant democracy, and several State governments and Assemblies have expressed reservations. Students have been in the forefront of protests that marked an awakening from a defeatist slumber of the country in the face of creeping majoritarianism. As the protests linger on, however, they appear to be sliding into the control of vested interests that work for religious polarisation. The discriminatory CAA targets Muslims, but the protests were driven by the wider civil society at the beginning. Incendiary speeches and slogans at anti-CAA protests, and even support for Islamist politics, have put non-sectarian opponents of the law in a difficult spot. Muslims have equal rights as all other citizens of India to assemble and protest, but reducing the CAA debate into a question of their rights alone is dishonour of the pluralist, inclusive Constitution of secular India. After the success in kindling a national debate on the issue which is now before the Supreme Court that will litigate its constitutionality, anti-CAA protesters must now hold their fire.
+The opportunity that the ruling Bharatiya Janata Party (BJP) sniffed in the protests is not to reach out and reconcile, but to confront and polarise, particularly in the campaign for the Delhi Assembly election. The chilling effect of the party’s brazen vilification and dehumanisation of the protesters is no longer an abstract fear. Three separate incidents of firing at protesters, two clearly inspired by Hindutva politics, have been reported in Delhi. Far from condemning these incidents in the strongest terms and ensuring swift and strict police action, the BJP leadership has continued with divisive rhetoric. A Union Minister led slogans calling for the “shooting of traitors”. The BJP must immediately adopt a path of reconciliation and resolution. One way is by making a further amendment to the CAA that will not prioritise religious persecution over other forms of persecution. No protester is against welcoming the persecuted from three neighbouring countries listed in the CAA. By amending the law to remove the arbitrary selection of countries and religious groups, the current turmoil can be easily calmed. A small step of reason and vision will serve India well.</t>
+  </si>
+  <si>
+    <t>CAA &amp; NRC are a wake-up call for all Indians</t>
+  </si>
+  <si>
+    <t>As the year ends, by snatching Jharkhand from the BJP’s command, the Congress is probably having the last laugh. Anti-BJP protests and demonstrations across the country against the Citizenship Amendment Act (CAA) and the National Register of Citizens (NRC) have certainly punctured the larger-than-life image projected about Prime Minister Narendra Modi. It has deflated electorally also in Jharkhand. Hopefully, the Jharkhand results will not make the Congress over-confident about its prospects in the forthcoming Assembly elections, particularly in Delhi. At present, the party needs to pay strategic importance to its anti-BJP campaign even if this demands an alliance with a regional party. Regarding Jharkhand, the Congress acted shrewdly by allying with a regional party prior to the Assembly elections than choosing to deliberate on its options after the declaration of the results. Besides, its protests against the CAA and the NRC has apparently not been ignored by voters.
+Amit Shah needs to perhaps deliberate on his confidence about remaining in power for 50 years because of the 2019 parliamentary victory. One needs to view his 50-year “obsession” from another angle. He may be around, but there is no guarantee that he’d still be in power.
+There is also a severe temporal lapse in the BJP’s drafting of the NRC as well as the CAA. The selection of the year 1971 for registering citizens in keeping with the NRC, which has so far not extended beyond Assam, is fairly puzzling. The framers of the NRC presumed that they will take little time in implementing it beyond Assam. India is not Assam, nor is it just Gujarat or Jammu and Kashmir (J&amp;K).
+Some importance should also be given to this nation’s functioning in keeping with its Indian Standard Time. Everything does not get done in time here. So, I am wondering, by the time some designated officials land up at the houses of those born before 1971, on the basis of God knows which data, there is no guarantee that those persons would be around. Okay, digital technology is assumed to have made everything a lot faster. But it was not around in the 1970s and earlier. How will midwives (dais) responsible for the birth of many prior to the 1970s be traced? Also, I have not heard of midwives having kept any record of the births they assisted in. With respect to those born in hospitals prior to 1971, the possibility of their certificates being retrieved from there is as good as non-existent. Besides, there is the “name” issue.
+Nowadays, even a minor difference in spelling of names in various identity cards one is supposed to have can spell a major headache. Earlier, usually, only nicknames were decided at the time of birth. The birth certificates of many, if they exist, prior to the 1970s don’t have the same name which was later chosen formally. Most educated and urban Indians are at present loaded with too many identity cards and documents required for verification: Driving license, birth-certificate, educational certificates, passport, PAN card, bank-statement, proof of having paid income tax, voter-ID and of course the Aadhaar card. The last needs to be linked with registered mobile numbers, PAN cards, bank accounts and I am not aware if new rules would include some other documents, including verification by neighbours with documents to prove their identity.
+It is really mind-boggling as to how many more identity cards each Indian is likely to be commanded to have. When Aadhaar cards were made compulsory, we ensured that all family members got theirs, by using the services of private agents. Since an elderly member was bedridden, the agent came home for his photograph, fingerprints, etc and his card was made. Earlier, the concerned government unit was approached to facilitate the same service. It took more than a year to respond and got in touch with us after the member had expired. This is just a mild indicator of the lapses still prevalent in the Indian system, because of which it is impossible to expect immediate, accurate as well as complete data to be officially recorded about each and every citizen.
+This writer has also learnt of cases of the Aadhaar card displaying the incorrect gender. No person — male, female, transgender or of any gender — would like to be identified wrongly, gender-wise. Of course, these errors have been corrected but not instantly or just within a few days.
+Even if the present leaders remain confident about the NRC and the CAA being prepared in 50 years, as per IST, why don’t they look into the future; and start keeping records from 2020 than waste money and time in digging up the past?
+It may be wiser for the government to give some importance to keeping a record of the blood group of each citizen. It should. It must. This will save time when, God forbid, any person reaches the stage of needing blood supply. Blood group is not decided by race, religion, caste, class and/or any other ethnic division. All my family members have different blood groups. Being accident-prone, they have needed blood more than once. Who knows, which and how many Indian citizens’ blood flows through my veins? I just know that it is Indian. Only in films, siblings with the same blood group turn up to save their parent from the jaws of death and thus get reunited.
+The unity being voiced by Indians against the CAA and the NRC cannot be taken lightly. It is a wake-up call for all, including ones obsessed by a 50-year syndrome. And this is not a laughing matter. The new generation is charting a new chapter for the coming years!</t>
+  </si>
+  <si>
+    <t>CAA protest is Muslims' pent-up ire against Modi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Muslim community, in short, viewed the course of politics since 2014 as a series of defeats. Determination to reacquire political relevance found expression in the anti-CAA stir, aided and abetted by those who had other political scores to settle with the Modi Government
+There are two very conflicting versions of the anti-Citizenship (Amendment) Act movement that are doing the rounds. Both need dispassionate scrutiny if we are to anticipate the future trends in Indian politics.
+The first narrative would have us believe that the anti-CAA stir is essentially an uprising of civil society against a bid by the Narendra Modi Government to steer India towards a majoritarian state. According to this point of view, the CAA may seem innocuous at first glance but in effect prepares the groundwork for relegating Muslims to the status of second-class citizens. Although the way this argument has been translated into political messaging in the grassroots would suggest that Indian Muslims must henceforth prove their Indian citizenship with documentation, the more sophisticated of the anti-CAA concede that there is nothing in the laws for the state to undertake such a draconian exercise. Their contention is that it could happen and a pre-emptive strike to negate all discriminatory practices is imperative.
+The second feature of this narrative is that the anti-CAA stir is presented as an uprising of civil society and includes a wide cross-section of society. In particular, it is held that students, Dalit organisations and all minority communities are involved in defeating the Modi Government’s project. It is also being held that the CAA is against the tenets of the Constitution and will be struck down by the Supreme Court after the hearings resume in April.
+Initially, the parliamentary opposition was slow to react to the CAA. The hearings of the Select Committee weren’t marked by too much acrimony — although dissenting notes were submitted. The Opposition believed that the main opposition to the CAA would happen in Assam and the North-eastern States and would be linked to the pre-existing disquiet against outsiders and all foreigners — Hindus and Muslims. The Opposition felt that the real pressure on the Government would come from these areas and that the rest of the country would be largely unaffected. Certainly, there was no anticipation that the Muslim community would react so adversely to a legislation that was aimed at benefitting small communities of refugees. In hindsight, the Opposition has merely piggy-backed on a movement that has been initiated and nurtured by community organisations.
+The alternative narrative presented by the Modi Government sees the CAA as attending to a long-standing issue centred on the loose ends of Partition. It has proceeded on the assumption that while illegal immigration from Bangladesh is difficult to contain, the issue would become more manageable and politically rewarding if a distinction could be made between refugees who had fled from religious persecution and those who had entered India for other regions. If the refugees were driven by a push factor, the infiltrators were pulled towards India by economic considerations.
+Underlying this distinction between refugees and infiltrators was the unstated conviction that India was the natural homeland for all Hindus. The CAA, in effect, guaranteed a right of return to all Hindus of the subcontinent. Coming to the anti-CAA stir, the Government too was taken by surprise when Muslim protests erupted all over West Bengal on December 13 — two days after Parliament passed the Bill — and quickly spread to the Muslim-dominated campuses of Aligarh and Jamia Milia Islamia, Delhi. Hostile demonstrations were anticipated in Assam and the North-eastern States and the Government was prepared to meet these with a combination of persuasion and firmness. There does not appear to have been any corresponding strategy for the protests in the rest of India. Once the protests escalated, the narrative of the BJP and the Government shifted focus to the composition of the protests. The Government was always clear in its mind on two things.
+First, that the composition of the demonstrations and the geography of the protests clearly indicated that it was a pre-planned Muslim uprising.
+Secondly, it was also felt that the CAA was incidental to the protests. The Muslim community, it was felt, was smarting over the fact that in two successive general elections, the BJP and Narendra Modi had coasted to outright victory without any Muslim support. Modi had not only undermined the political clout of the Muslim community; he had added to the insult by enacting three laws that many Muslims felt were inimical to their community interests. The first was the triple talaq legislation, the first time Muslim personal laws were altered since 1940. The second was the abrogation of Article 370 in Jammu &amp; Kashmir, a long-standing BJP election commitment that the pundits felt could never be implemented. Thirdly, there was the CAA which clearly distinguished between Hindu refugees and Muslim infiltrators. In principle, by stating that those who were deemed illegal immigrants were ineligible for citizenship, the CAA has left the door open for deportation of foreigners. The CAA also ruled out the possibility of India granting any form of asylum to Muslim Rohingyas fleeing Bangladesh. Finally, the simmering disquiet over the Supreme Court verdict in the Ayodhya case was waiting to find an outlet.
+The Muslim community, in short, viewed the course of politics since 2014 as a series of defeats. The determination to reacquire political relevance found expression in the anti-CAA stir, aided and abetted by those who had other political scores to settle with the Modi Government.
+What is being witnessed in today’s India is a sharply polarised environment based on two very different narratives. India is actually witnessing a sharply ideological division which won’t easily be resolved.  </t>
+  </si>
+  <si>
+    <t>NRC, CAA talk all upside down</t>
+  </si>
+  <si>
+    <t>The Union law minister has assured the nation that while there is a possibility of the National Register of Citizens being implemented, it would be done on the basis of rules defined after exhaustive consultation. If the sustained protests across the country against the NRC as well as the Citizenship (Amendment) Act are any indication, India’s citizens remain deeply suspicious about the real intent of these measures. The contentious nature of the CAA, which seeks to redefine citizenship through a selective filter of faith, is one reason for the public outrage. The mixed signals coming from the top have also helped fan the flames. Earlier, the prime minister had said that talks of a pan-India NRC have not taken place. Narendra Modi, who seemed to be contradicting the views of his colleagues, including the home minister, is now, in turn, being contradicted by the Union law minister. If the claim of talks of a countrywide NRC, as Mr Modi said, is indeed speculative, how is it that the Union law minister spotted the ‘possibility’ of the NRC being imposed on the nation at some point?
+Perhaps this is all a part of the Bharatiya Janata Party’s game plan. A smokescreen, the result of inconsistent pronouncements, is often useful to mask intent. It is the discriminatory nature of the CAA-NRC that makes such subterfuge necessary. The proposal is not just unconstitutional: providing citizenship on the basis of religion goes against constitutional tenets. What is equally objectionable — this point seems to have got lost amidst the noise — is that the NRC, the CAA cannot be looked at independently, proposes to shift the burden of proof of citizenship on citizens themselves. Why should Indians, most of whom possess relevant documentary evidence of some form, be made to experience the indignity of having to declare their place in the country to a government that has been elected by them? This is an inversion of the basic contract that binds citizens to their government. Yet, the BJP is convinced that electoral majority has given it the licence to subject the people, rather than its government, to tests of fidelity to citizenship or, as the disastrous demonetization exercise showed, to financial integrity. Ideally, in a democracy, the people are invested with the power to hold the government accountable. But in New India, it is the government that is attempting to render the people powerless in this respect.</t>
+  </si>
+  <si>
+    <t>NPR’s turn: CAA and NRC have created a trust deficit. It’s difficult for NPR to now pass muster</t>
+  </si>
+  <si>
+    <t>Amid unending turmoil over the Citizenship (Amendment) Act and National Register of Citizens, Centre has sanctioned funds for the National Population Register exercise with the explicit promise that it is not linked to the divisive NRC. Rhetoric on NRC has been dialled down, but the relief has proved short lived with NPR sparking fresh worries. For one, the Citizenship (Registration of Citizens and Issue of National Identity Cards) Rules, 2003, leave little to imagination that a Population Register could be a precursor to finalising a “National Register of Indian Citizens”.
+Equally alarming are the 2003 rules which allow anyone to raise objections to entries in the “Local Register of Indian Citizens” at the taluk/ sub-district level. It raises the prospect of genuine citizens in a document-poor country like India being subjected to harassment and witch hunts from neighbours, politically motivated groups, and a dysfunctional lower bureaucracy.
+BJP looks out on a limb with this one, as it finds it difficult to convince even its allies, let alone the opposition, that all these enumeration exercises in conjunction with CAA will do more good than harm. Akali Dal now wants Muslim refugees also included in CAA after supporting the legislation in Parliament. Similarly, Assam’s AGP supported CAA in Parliament but is now singing a different tune. Others like JD(U) and BJD, which also supported CAA, are pushing back against NRC. All these parties were mum earlier, despite CAA-NRC’s discriminatory and bureaucratic character as well as NRC’s apparent failure in Assam having been pointed out. While they should have exercised due diligence, BJP should now pay heed and listen to the protesting voices.
+But that isn’t happening yet going by Prime Minister Narendra Modi’s rebuke of the violent protests and unqualified backing for UP police. Videos of the violence implicate both sides. With police constraining the space for peaceful protests the danger of grievances manifesting as violence grows. Acts like booking 1,200 people at Aligarh Muslim University for a candlelight protest mustn’t be repeated. 21 shooting deaths in UP alone are excessive. Many states have said they will not cooperate in these enumeration exercises. A gaping trust deficit is accompanying the gathering storm and it portends misery, chaos and economic ruin. Let’s pull back from this chasm, and focus the nation’s attention instead on what the IMF has billed as the surprising magnitude of India’s slowdown. What the country needs is jobs and economic growth, not “maximum government”.</t>
+  </si>
+  <si>
+    <t>India needs to restore its image as a pluralist democracy</t>
+  </si>
+  <si>
+    <t>The European Union (EU) Parliament is set to debate a clutch of resolutions on various policies of the Narendra Modi government, ranging from the Citizenship (Amendment) Act (CAA) to the changes to Article 370. The Bharatiya Janata Party-led government’s ideological push has generated domestic challenges, be it in the form of sullen anger among locals in Kashmir or the protests against the CAA. But it has also generated a major international challenge, with criticism about the weakening of democracy in India.
+To be sure, the EU Parliament does not reflect the will of the independent, sovereign governments that make up the Union. Additionally, the resolutions and statements by Members of the European Parliament lack any binding authority. It is also true that India’s external adversaries, and ideologically driven groups, have often pushed exaggerated propaganda. And there can be no arguing that the issues that are discussed are India’s business. But the onus rests on Delhi to allay apprehensions. It cannot play up foreign points of view when favourable (remember it invited MEPs to Kashmir), and dismiss them as irrelevant when unfavourable. India needs to restore its image as a healthy democracy, committed to pluralism. Fix the product, and the messaging.</t>
+  </si>
+  <si>
+    <t>The objections to the Citizenship Act are generally unconvincing</t>
+  </si>
+  <si>
+    <t>The agitation against the Citizenship Amendment Act appears to have gone through three phases. In the first phase, it was a protest against its enactment, as there were genuine apprehensions that the Act, followed by a pan-India NRC exercise, would lead to a large section of society, mostly Muslims, being declared illegal migrants/citizens. There was protests in Jamia Millia Islamia and large-scale demonstrations in Assam and other Northeast states. In the second phase, it became a confrontation between students and the police. Allegations of police high-handedness spread and there were sympathetic protests in educational institutions across the country. The CAA remained the trigger, but it was pushed to the background. Student anger was directed against the police and the government. In the third phase, which we are witnessing today, the movement has been hijacked by political opportunists, separatist factions, fundamentalist groups and lumpen elements. The CAA is an excuse; the target is the ruling party.
+The government, in retrospect, appears to have seriously miscalculated the fallout of the CAA. Its success on three fronts appears to have made it insensitive to the simmering anger among the Muslim community. The Muslim Women (Protection of Rights on Marriage) Bill 2019, which banned triple talaq, was a good measure for the emancipation of Muslim women from an atrocious practice, but it antagonised the radical elements. The abrogation of Article 370 of the Constitution, ending the special status of Jammu and Kashmir, aggravated the discomfiture of Muslims. Then the Supreme Court verdict on Ayodhya added to the sense of unease. The canard that the judiciary had been influenced to give the disputed plot to the Hindus for the construction of the Ram temple, with some luminaries writing about the alleged flaws in the judgment, added fuel to the fire. All these three developments — the annulment of triple talaq, the abrogation of Article 370 and the Ayodhya verdict — collectively led to a feeling of anger, resentment and frustration among Muslims. The government either was not aware of the depth of Muslim resentment or was not bothered about it and was confident of being able to weather any storm.
+The announcement of the National Population Register was unexceptionable, but it was ill-timed. Heavens would not have fallen if it had been delayed by a few months. It has provided further ammunition to the Opposition which has embarked on a disinformation campaign to mislead people.
+The police are presently doing a thankless job. If they take action against the agitators, as they did in UP, there are allegations of high-handedness. If they play it safe, as they did in West Bengal, the agitators will have a field day — destroy railway property, burn buses, attack police posts and indulge in acts of vandalism. It is indeed sad that in most of the states, the governments are not particularly bothered about the destruction of public and private property. The taxpayer’s money is nobody’s concern.
+The Supreme Court had, in the context of state governments not taking effective measures to protect public and private property from being damaged by unruly mobs, constituted two committees, one headed by Justice K T Thomas and the other by F S Nariman, to study the problem. The Thomas Committee gave recommendations regarding the modalities for preventive action and for providing sharper teeth to inquiry/investigation. The Nariman Committee made suggestions regarding the assessment of damages. These were accepted by the Court which clearly said that “the liability will be borne by the actual perpetrators of the crime as well as the organisers of the event giving rise to the liability” and that “exemplary damages may be awarded”. Uttar Pradesh is perhaps the first state to have shown the political will to punish those who vandalised property.
+The agitation has thrown up some disturbing questions. In UP, according to the police chief, there was a conspiracy to create disturbance. If so, one would like to know its full ramifications. Another senior police officer said that the pattern of protests in the state showed guerrilla tactics. The official version that the police did not open fire, and the fact that there have been deaths due to bullet injuries need to be reconciled. Reports about the involvement of Popular Front of India (PFI) in the agitation are a matter of grave concern and require in-depth investigation. The Karnataka home minister, speaking about the Mangaluru violence, stated that the attack on police was premeditated and the arson was orchestrated by anti-social elements. It would appear that the roots of the agitation go much deeper. Resentment against CAA was perhaps the proverbial last straw. But the movement has since degenerated into a confrontation between the government and diverse elements opposed to it.
+The objections to the Citizenship Act are generally unconvincing. Assam is the only state which has reasons to feel aggrieved. There is substance in the argument that the Act contravenes Clause 6 of the Assam Accord which guaranteed safeguards to “protect, preserve and promote the cultural, social, linguistic identity and heritage of the Assamese people”. Reservations on the NRC are understandable. While going ahead with the CAA, the government would do well to scrap the proposal to expand the NRC and explore the possibility of settling refugees in other states across the country which are willing to and in a position to absorb them.</t>
+  </si>
+  <si>
+    <t>Rafale Deal</t>
+  </si>
+  <si>
+    <t>The CAG report does not allay all doubts about the Rafale deal</t>
+  </si>
+  <si>
+    <t>The price-redacted audit report on the process to acquire 36 Rafale fighter jets is unlikely to bring closure to the controversy over the deal. The report of the Comptroller and Auditor-General of India tabled in Parliament comes in the midst of a vigorous campaign by the Opposition that is questioning the process, based on media revelations about possible lapses and deviations and significant points raised by dissenting members of the Indian Negotiating Team (INT). The Modi government can draw comfort from the fact that the CAG report concludes that the 2016 agreement is slightly better in terms of both pricing and delivery than what was under negotiation in 2007 during the UPA regime. However, the report does not allay all doubts. Pegged at 2.86%, the price advantage in the contract over the 2007 offer is marginal. It is a far cry from the 9% saving claimed by the government. The delivery schedule is only one month sooner than the estimated outer limit in the earlier process. The CAG has found fault with Dassault Aviation being allowed to retain the gains made by the absence of a bank guarantee, which, if executed, would have come with significant charges. Disappointingly, the CAG has not quantified this amount, though it declares that it should have been passed on to the Defence Ministry. The 2007 price offered by Dassault included bank charges, and its absence in the 2016 contract is a clear benefit to the company. In other words, the ‘advantage’ is lower than the 2.86%.
+While the key question of pricing is sought to be resolved by the CAG by comparing the auditors’ aligned price with the INT’s computation, some issues remain unaddressed. The original issue of bringing down the total acquisition from 126 to 36 aircraft does not draw much comment. Also, the huge outgo on the India-Specific Enhancements (ISEs), despite the final figure being projected as a 17% saving on the aligned offer, is something that requires deeper examination. While auditing the earlier process, the CAG found that ISEs were upgrades allowed to be made so that Dassault’s bid would be compliant with qualitative requirements. Even a team of Ministry officials that examined in March 2015 the integrity of the earlier process concluded that “the acceptance of [Dassault’s] additional commercial proposal after bid submission date... was unprecedented and against the canons of financial propriety.” Dassault was not the lowest bidder in the earlier process, and its technical bid had been rejected. Perhaps, this presented an opportunity to the present regime to reopen the entire process to buy Medium Multi-Role Combat Aircraft (MMRCA) and invite fresh bids. However, it chose the IGA route with France, possibly for diplomatic reasons. The CAG identifies as a major problem the fact that the technical requirements are too narrowly defined for most vendors to comply with. The message from the report is that defence acquisition processes require reforms and streamlining.</t>
+  </si>
+  <si>
+    <t>Rafale deal: Come clean</t>
+  </si>
+  <si>
+    <t>The Supreme Court has prodded the Centre again on the controversial Rafale fighter purchase terms. Earlier court directions had to do with the selection process, but more searching questions are now being asked, mainly on two issues: pricing and the offset deal between Dassault and an Indian private player. The government might take cover under the Officials Secrets Act on not disclosing the pricing of a deal already being fulfilled by India with the first payment made to Dassault. It would, however, be in everyone’s interest for the Centre to be more forthcoming on the deal than it has been — in Parliament and in the Supreme Court. Perhaps it’s too late to take the major Opposition leaders into confidence on the deal’s broader aspects.
+There’s never been any doubt on the Rafale’s quality and weapon capabilities. But public money is being spent and questions will be asked. It’s up to the government to satisfy those who want to know more about the new deal, after the deal envisaged by the UPA government was altered. Also, India has a right to know if a bribe or unfair commission was built into the deal as a not so well-equipped private player, with little previous history of defence manufacturing, is among many with offset deals that will see money ploughed back into making parts and subsidiary systems in India. While disclosures may be a concern over the nature of tactical weaponry being revealed if the pricing details were to be made public, there is little need not to be forthcoming on the offset deals if suspicions are to be cleared.</t>
+  </si>
+  <si>
+    <t>CAG report on Rafale highlights the flawed process</t>
+  </si>
+  <si>
+    <t>There’s no such thing as a benign Comptroller and Auditor General (CAG) report. The government’s auditor is expected to be finicky and puritanical when it comes to processes and finances — and it is usually that. The report by CAG on the Indian Air Force’s acquisitions that was tabled in Parliament on February 13, is just that, although not in a way that either the government or the opposition would want. The report is on 11 air force purchases, although much of the focus has been on one deal – the purchase of 36 Rafale fighters through an Inter-Governmental Agreement (IGA) between India and France.
+At one level, the report on Rafale, is a vindication of the government’s stance that it bought the aircraft at a lower price than in an older deal negotiated by the Congress-led United Progressive Alliance (UPA), and scrapped in March 2015. At another, by highlighting the absence, in the new deal, of financial and performance guarantees on around 25% of the cost of the old deal, the government’s auditor has explicitly articulated its point of view that Rafale maker Dassault Aviation has saved some amount of money and not passed it on to the government of India. This, the fact that the offsets part of the deal will only be dealt with in a subsequent report, and the report’s mere restatement of the government’s position on the lack of financial and performance guarantees in the new deal will likely provide enough material for the Congress and other parties to continue to ask questions about the deal. The big message in the CAG report, though, isn’t any of this. Anyone reading the report cannot but be appalled at the way the defence procurement process works in India. It is, at best, inefficient, and at worst, opaque.
+Sample this: the government spent four years, between 2000, when it first set out to buy the much-needed fighter jets, and 2004, deciding whether the purchase should be done on a so-called single-source basis or through a competitive bid. The government in charge was the first edition of the National Democratic Alliance (NDA). Or this: in November 2004, having decided to opt for the competitive bidding route, the government put out a Request for Interest. The CAG report says the only thing this contributed to the process was a delay. Sure enough, the Request for Quotations didn’t go out till August 2007. The government of the day? The first edition of the UPA. The bureaucracy and the defence establishment seem to have done their bit too. The CAG report is especially harsh on the narrow definition of Air Staff Qualitative Standards or ASQRs, and the arrival of the benchmark price, which seems to be without basis — a committee under UPA-1 came up with a price 47% lower than the lowest bid in the case of the old deal; the Indian negotiation team for the IGA under the NDA, started with one that was 57% lower. The CAG terms both prices unrealistic.
+In what must cause discomfort to the UPA, the report says Dassault was treated preferentially in the old deal. Indeed, the fighter didn’t meet nine of the ASQRs; the company was allowed to change its technology and price bid. CAG also says a competing bid from the European Aeronautic Defence and Space Company (EADS) was also non-compliant. Interestingly, after the deal was all but done, in June 2012, the then defence minister asked for an overview of the entire process. By the time this overview was complete, the government had changed. This overview, results of which were submitted in March 2015, found bids of both Dassault and EADS non-compliant and recommended that the process be restarted.
+And so, 15 years after the process began, India found itself at the starting point again. A reading of the CAG report shows that this isn’t unique to the fighter deal. It mentions a 2012 acquisition of 11 Doppler Radars by the Air Force, which took 96 months, and points out that the India Meteorological Department, also a government department, took a mere 11 months to acquire the same equipment. Irrespective of what their positions may be on the Rafale deal, the government and the opposition need to agree that the defence acquisition process needs an overhaul. The new government (whichever one) that takes over in May would do well to set up a Joint Parliamentary Committee to do this.</t>
+  </si>
+  <si>
+    <t>Missing Rafale papers would be pure comedy if it weren't dangerous</t>
+  </si>
+  <si>
+    <t>When an institution that believes in hi-tech surveillance of ordinary citizens fails to prevent some of its most precious documents from being stolen, it is the stuff of pure comedy. Only when that institution is the government of a country, it is no longer comic but dangerous. The Bharatiya Janata Party-led government at the Centre has declared that crucial documents relating to the Rafale deal have been stolen. The dangers this implies are multiple. The disconnect is dizzying: while the ministry of home affairs empowers Central agencies to snoop on citizens’ computers to stop crime and terrorism, the defence ministry is blind to the thieves in its midst. While the BJP’s minions seize ‘anti-nationals’ and mobs kill people from minority groups in the name of cow protection while beating up Kashmiris on the side, a targeted little burglary is executed in the building that houses the defence and foreign ministries and the Prime Minister’s Office. This argues incompetence of such gigantic proportions that comedy vanishes. It must have been this incompetence that allowed a private vehicle loaded with explosives to destroy a truck full of jawans amid a military convoy on a highly protected route. It is the same incompetence, this time in propaganda, that has ministers and officials scrambling to reach an agreement on the number of dead militants in Balakot.
+There is, shamefully enough, another side to the government’s declaration. The allegedly stolen papers were used by a newspaper to expose dubious aspects of the Rafale deal. The government appears unable to conceal its anxiety that these documents might be used as evidence in court. Perhaps it hopes that if they have been stolen — a charge not made when the newspaper used them — their ‘unclean’ source may discredit them as evidence. To distract attention from a mess that is obviously far from simple, the government, through its mouthpiece in court, is talking of the newspaper’s supposed violation of the Official Secrets Act. Wielding laws is the easy way out. More dangerous, however, is the Narendra Modi-led government’s attitude towards journalism. Independent thinking, analysis, criticism and pursuit of truth for public interest are simply impermissible. But it may become a bit awkward if the media now begin concentrating on finding out how the Rafale papers were stolen.</t>
+  </si>
+  <si>
+    <t>CAG’s Rafale report: Political fisticuffs will continue, India’s defence procurement is in a mess</t>
+  </si>
+  <si>
+    <t>With the tabling of the Comptroller and Auditor General’s (CAG) report on the Rafale fighter aircraft deal in Parliament, both BJP and Congress are claiming vindication. While the ruling party is pointing to the report’s finding that the fighter jet deal negotiated by it in 2016 was 2.86% cheaper – per unit basis – than the 2007 deal for the same aircraft that was being negotiated by the previous UPA regime, Congress is still hinting at impropriety because the report redacts the actual prices of the aircraft and associated components.
+In fact, CAG itself finds comparing the two deals – UPA’s 126 aircraft and NDA’s 36 aircraft – quite challenging. Not only were the quantities different, the auditor also had to factor in price escalation over the intervening years as well as differences in the packages themselves. UPA’s 126 aircraft deal had a significant transfer-of-technology component unlike NDA’s 36 aircraft in flyaway condition. Nonetheless, the CAG report lays out the reasons for the cancellation of the UPA deal as Rafale’s French manufacturer Dassault Aviation refusing to provide guarantee for the aircraft that were to be produced by Hindustan Aeronautics Limited and failure to determine the manpower cost of manufacturing in India. This setback after a 15-year procurement process had created a real crisis for the Indian Air Force whose fighter squadrons are fast depleting.
+But BJP may have scored a self-goal when it declared after coming to power that it would get a better fighter aircraft deal. As the CAG report shows, three items of the new Rafale deal including the basic aircraft were procured at the same price as the old deal. It also indicates that the marginal price drop overall happened at the cost of removal of banking and performance guarantees, a standard feature of such contracts. Congress is bound to play this up, and political fisticuffs will continue.
+On several matters, the Narendra Modi government has failed to answer the opposition’s questions clearly and unequivocally. To cite one of very many, why can’t the price of the Rafale jet be revealed to a select parliamentary panel, especially as estimates are widely available and cannot be tough to find out for anyone determined to dig? Opacity in the government’s arguments has enabled the opposition to look for advantage. Finally, if this is the tortuous path that every defence procurement has to take, it is a tragedy. A better defence procurement process needs to be worked out expeditiously for the sake of national security.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,11 +839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,6 +893,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -765,6 +913,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -782,6 +933,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -799,6 +953,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -816,6 +973,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -833,6 +993,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -850,6 +1013,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -867,6 +1033,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -884,144 +1053,576 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="4" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>33</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
